--- a/data/n/03-03-2024.xlsx
+++ b/data/n/03-03-2024.xlsx
@@ -13,30 +13,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Umesh Raghunandanlal Anand</t>
+    <t>Nitin Anand</t>
   </si>
   <si>
     <t>Mobile Number</t>
   </si>
   <si>
-    <t>+919702366423</t>
+    <t>+919769499764</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>umesh.r.anand@gmail.com</t>
+    <t>anandnitin2@gmail.com</t>
   </si>
   <si>
     <t>PAN</t>
   </si>
   <si>
-    <t>AIXPA3414D</t>
+    <t>AKDPA0314N</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -78,148 +78,184 @@
     <t>Units</t>
   </si>
   <si>
-    <t xml:space="preserve">HDFC Liquid Fund-Direct Plan-Growth Option </t>
-  </si>
-  <si>
-    <t>HDFC Mutual Fund</t>
+    <t xml:space="preserve">Parag Parikh Dynamic Asset Allocation Fund - Direct Plan Growth </t>
+  </si>
+  <si>
+    <t>PPFAS Mutual Fund</t>
+  </si>
+  <si>
+    <t>DEBT</t>
+  </si>
+  <si>
+    <t>11202089</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>Parag Parikh Flexi Cap Fund - Direct Plan (formerly Parag Parikh Long Term Value Fund)</t>
+  </si>
+  <si>
+    <t>EQUITY</t>
+  </si>
+  <si>
+    <t>2211999.99</t>
+  </si>
+  <si>
+    <t>2972172.90</t>
+  </si>
+  <si>
+    <t>760172.91</t>
+  </si>
+  <si>
+    <t>37634.399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parag Parikh Liquid Fund Direct Plan Growth </t>
   </si>
   <si>
     <t>CASH</t>
   </si>
   <si>
-    <t>23540205</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>0.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDFC Small Cap Fund - Direct Growth Plan </t>
-  </si>
-  <si>
-    <t>EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navi Liquid Fund - Direct Plan - Growth </t>
-  </si>
-  <si>
-    <t>NAVI MF</t>
-  </si>
-  <si>
-    <t>9775075318</t>
-  </si>
-  <si>
-    <t>Parag Parikh Flexi Cap Fund - Direct Plan (formerly Parag Parikh Long Term Value Fund)</t>
-  </si>
-  <si>
-    <t>PPFAS Mutual Fund</t>
-  </si>
-  <si>
-    <t>10320728</t>
-  </si>
-  <si>
-    <t>153688.14</t>
-  </si>
-  <si>
-    <t>224623.25</t>
-  </si>
-  <si>
-    <t>70935.11</t>
-  </si>
-  <si>
-    <t>2844.236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parag Parikh Liquid Fund Direct Plan Growth </t>
-  </si>
-  <si>
-    <t>11932510</t>
-  </si>
-  <si>
-    <t>260980.94</t>
-  </si>
-  <si>
-    <t>384858.03</t>
-  </si>
-  <si>
-    <t>123877.09</t>
-  </si>
-  <si>
-    <t>4873.169</t>
-  </si>
-  <si>
-    <t>12060935</t>
-  </si>
-  <si>
-    <t>232500.09</t>
-  </si>
-  <si>
-    <t>310084.28</t>
-  </si>
-  <si>
-    <t>77584.19</t>
-  </si>
-  <si>
-    <t>3926.365</t>
+    <t>32465.89</t>
+  </si>
+  <si>
+    <t>33569.70</t>
+  </si>
+  <si>
+    <t>1103.81</t>
+  </si>
+  <si>
+    <t>25.154</t>
+  </si>
+  <si>
+    <t>NIPPON INDIA POWER &amp; INFRA FUND - DIRECT PLAN GROWTH PLAN - GROWTH OPTION</t>
+  </si>
+  <si>
+    <t>Nippon India Mutual Fund</t>
+  </si>
+  <si>
+    <t>499293177007</t>
+  </si>
+  <si>
+    <t>234786.91</t>
+  </si>
+  <si>
+    <t>247125.13</t>
+  </si>
+  <si>
+    <t>12338.22</t>
+  </si>
+  <si>
+    <t>751.877</t>
+  </si>
+  <si>
+    <t>NIPPON INDIA SMALL CAP FUND - DIRECT GROWTH PLAN GROWTH OPTION</t>
+  </si>
+  <si>
+    <t>167000.00</t>
+  </si>
+  <si>
+    <t>174507.24</t>
+  </si>
+  <si>
+    <t>7507.24</t>
+  </si>
+  <si>
+    <t>1094.571</t>
+  </si>
+  <si>
+    <t>quant Small Cap Fund - Direct Plan Growth</t>
+  </si>
+  <si>
+    <t>Quant MF</t>
+  </si>
+  <si>
+    <t>51036013603</t>
+  </si>
+  <si>
+    <t>670000.00</t>
+  </si>
+  <si>
+    <t>692395.52</t>
+  </si>
+  <si>
+    <t>22395.52</t>
+  </si>
+  <si>
+    <t>2694.016</t>
+  </si>
+  <si>
+    <t>quant Liquid Fund - Direct Plan</t>
+  </si>
+  <si>
+    <t>LIQUID</t>
+  </si>
+  <si>
+    <t>710201.83</t>
+  </si>
+  <si>
+    <t>713576.84</t>
+  </si>
+  <si>
+    <t>3375.01</t>
+  </si>
+  <si>
+    <t>18478.500</t>
   </si>
   <si>
     <t>quant Momentum Fund - Direct Plan Growth</t>
   </si>
   <si>
-    <t>Quant MF</t>
-  </si>
-  <si>
-    <t>51035280033</t>
-  </si>
-  <si>
-    <t>1790959.35</t>
-  </si>
-  <si>
-    <t>2019519.36</t>
-  </si>
-  <si>
-    <t>228560.01</t>
-  </si>
-  <si>
-    <t>149686.056</t>
-  </si>
-  <si>
-    <t>quant Small Cap Fund - Direct Plan Growth</t>
-  </si>
-  <si>
-    <t>51038374673</t>
-  </si>
-  <si>
-    <t>60000.00</t>
-  </si>
-  <si>
-    <t>72020.01</t>
-  </si>
-  <si>
-    <t>12020.01</t>
-  </si>
-  <si>
-    <t>280.220</t>
-  </si>
-  <si>
-    <t>51038375554</t>
-  </si>
-  <si>
-    <t>31000.00</t>
-  </si>
-  <si>
-    <t>37330.79</t>
-  </si>
-  <si>
-    <t>6330.79</t>
-  </si>
-  <si>
-    <t>145.249</t>
+    <t>2200000.00</t>
+  </si>
+  <si>
+    <t>2273204.71</t>
+  </si>
+  <si>
+    <t>73204.71</t>
+  </si>
+  <si>
+    <t>168489.124</t>
+  </si>
+  <si>
+    <t>quant Flexi Cap Fund - Direct Plan Growth</t>
+  </si>
+  <si>
+    <t>115000.00</t>
+  </si>
+  <si>
+    <t>126691.32</t>
+  </si>
+  <si>
+    <t>11691.32</t>
+  </si>
+  <si>
+    <t>1214.831</t>
+  </si>
+  <si>
+    <t>quant Quantamental Fund - Direct Plan</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>360000.00</t>
+  </si>
+  <si>
+    <t>381223.43</t>
+  </si>
+  <si>
+    <t>21223.43</t>
+  </si>
+  <si>
+    <t>16403.268</t>
   </si>
   <si>
     <t>Total Investments</t>
@@ -241,6 +277,33 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>S T P Out</t>
+  </si>
+  <si>
+    <t>03-MAR-2024</t>
+  </si>
+  <si>
+    <t>38.6166</t>
+  </si>
+  <si>
+    <t>-77.687</t>
+  </si>
+  <si>
+    <t>-3000.00</t>
+  </si>
+  <si>
+    <t>-51.791</t>
+  </si>
+  <si>
+    <t>-2000.00</t>
+  </si>
+  <si>
+    <t>-25.896</t>
+  </si>
+  <si>
+    <t>-1000.00</t>
   </si>
 </sst>
 </file>
@@ -325,14 +388,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="50.78125" customWidth="true"/>
-    <col min="2" max="2" width="17.578125" customWidth="true"/>
+    <col min="2" max="2" width="25.390625" customWidth="true"/>
     <col min="3" max="3" width="21.484375" customWidth="true"/>
     <col min="4" max="4" width="17.578125" customWidth="true"/>
     <col min="5" max="5" width="17.5" customWidth="true"/>
@@ -399,24 +462,24 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="2">
-        <v>2529128.52</v>
+        <v>6701454.620000001</v>
       </c>
       <c r="B10" t="n" s="2">
-        <v>3048435.7199999997</v>
+        <v>7614466.79</v>
       </c>
       <c r="C10" t="n" s="2">
-        <v>519307.2</v>
+        <v>913012.17</v>
       </c>
     </row>
     <row r="12">
@@ -485,276 +548,224 @@
         <v>24</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>29</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>29</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>29</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="E23" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="E24" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="F24" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +775,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -772,8 +783,8 @@
   <cols>
     <col min="1" max="1" width="50.78125" customWidth="true"/>
     <col min="2" max="2" width="24.4140625" customWidth="true"/>
-    <col min="3" max="3" width="5.859375" customWidth="true"/>
-    <col min="4" max="4" width="4.8828125" customWidth="true"/>
+    <col min="3" max="3" width="10.6640625" customWidth="true"/>
+    <col min="4" max="4" width="7.3828125" customWidth="true"/>
     <col min="5" max="5" width="6.8359375" customWidth="true"/>
     <col min="6" max="6" width="7.8125" customWidth="true"/>
   </cols>
@@ -839,19 +850,79 @@
         <v>13</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s" s="3">
         <v>20</v>
       </c>
       <c r="F9" t="s" s="3">
-        <v>75</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s" s="4">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s" s="4">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s" s="4">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s" s="4">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="F11" t="s" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s" s="4">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s" s="4">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s" s="4">
+        <v>95</v>
+      </c>
+      <c r="F12" t="s" s="4">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
